--- a/medicine/Enfance/Grève_des_enfants_à_Hodimont/Grève_des_enfants_à_Hodimont.xlsx
+++ b/medicine/Enfance/Grève_des_enfants_à_Hodimont/Grève_des_enfants_à_Hodimont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gr%C3%A8ve_des_enfants_%C3%A0_Hodimont</t>
+          <t>Grève_des_enfants_à_Hodimont</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La grève des enfants de Hodimont s'est déroulée le 22 novembre 1868 à Hodimont, dans la région belge de Verviers. Plusieurs enfants dits « rattacheurs », travaillant dans sous les machines à tisser des filatures, manifestent dans les rues de la ville pour réclamer de ne travailler qu'entre 6 h du matin et 19 h, au lieu d'effectuer des journées qui s'étendent de 5 h du matin à 22 h[1]. Ils sont quelques dizaines à défiler dans les rues[1] filles et garçons, accompagnés de pancartes[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grève des enfants de Hodimont s'est déroulée le 22 novembre 1868 à Hodimont, dans la région belge de Verviers. Plusieurs enfants dits « rattacheurs », travaillant dans sous les machines à tisser des filatures, manifestent dans les rues de la ville pour réclamer de ne travailler qu'entre 6 h du matin et 19 h, au lieu d'effectuer des journées qui s'étendent de 5 h du matin à 22 h. Ils sont quelques dizaines à défiler dans les rues filles et garçons, accompagnés de pancartes.
 </t>
         </is>
       </c>
